--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 6.4\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my\Source\Code\xlsxtolua\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,12 +228,32 @@
   <si>
     <t>presentLevel(INT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>5004</t>
+  </si>
+  <si>
+    <t>5005</t>
+  </si>
+  <si>
+    <t>5006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,14 +471,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -526,6 +546,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -561,6 +598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,11 +794,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,8 +935,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1</v>
+      <c r="A6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -910,8 +964,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2</v>
+      <c r="A7" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -933,8 +987,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>3</v>
+      <c r="A8" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -959,8 +1013,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>4</v>
+      <c r="A9" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -981,6 +1035,58 @@
         <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my\Source\Code\xlsxtolua\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 6.4\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,32 +228,12 @@
   <si>
     <t>presentLevel(INT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>5004</t>
-  </si>
-  <si>
-    <t>5005</t>
-  </si>
-  <si>
-    <t>5006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,14 +451,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -546,23 +526,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -598,23 +561,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -794,11 +740,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,8 +881,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>54</v>
+      <c r="A6" s="3">
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -964,8 +910,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
+      <c r="A7" s="3">
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -987,8 +933,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
+      <c r="A8" s="3">
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1013,8 +959,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
+      <c r="A9" s="3">
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1035,58 +981,6 @@
         <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
